--- a/Functional/src/main/java/TestData/SdetData.xlsx
+++ b/Functional/src/main/java/TestData/SdetData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8F7979D0-1521-4CE1-A4FA-97514CBD2789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{377DE369-7BAF-4301-B964-82D96FC73119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E6B48CBB-E3C3-4985-A41E-70A93B6DD381}"/>
   </bookViews>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86837F7-9F6A-4C18-BEB0-1F3D9F3A775C}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,10 +429,6 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -441,10 +437,6 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -453,10 +445,6 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -465,10 +453,6 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -477,10 +461,6 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -489,10 +469,6 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -501,10 +477,6 @@
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -513,10 +485,6 @@
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -525,107 +493,37 @@
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
